--- a/artfynd/A 47165-2021.xlsx
+++ b/artfynd/A 47165-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363016</v>
+        <v>111363017</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593439.5664869671</v>
+        <v>593472.3298762256</v>
       </c>
       <c r="R2" t="n">
-        <v>6986881.627536911</v>
+        <v>6986898.025413335</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111363018</v>
+        <v>111363019</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>593479.5069047968</v>
+        <v>593439.5664869671</v>
       </c>
       <c r="R3" t="n">
-        <v>6986870.044355935</v>
+        <v>6986881.627536911</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363019</v>
+        <v>111363016</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363017</v>
+        <v>111363032</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593472.3298762256</v>
+        <v>593471.9433232083</v>
       </c>
       <c r="R5" t="n">
-        <v>6986898.025413335</v>
+        <v>6986863.916970093</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363032</v>
+        <v>111363018</v>
       </c>
       <c r="B6" t="n">
         <v>89405</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593471.9433232083</v>
+        <v>593479.5069047968</v>
       </c>
       <c r="R6" t="n">
-        <v>6986863.916970093</v>
+        <v>6986870.044355935</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">

--- a/artfynd/A 47165-2021.xlsx
+++ b/artfynd/A 47165-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363017</v>
+        <v>111363016</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593472.3298762256</v>
+        <v>593439.5664869671</v>
       </c>
       <c r="R2" t="n">
-        <v>6986898.025413335</v>
+        <v>6986881.627536911</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111363019</v>
+        <v>111363018</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>593439.5664869671</v>
+        <v>593479.5069047968</v>
       </c>
       <c r="R3" t="n">
-        <v>6986881.627536911</v>
+        <v>6986870.044355935</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363016</v>
+        <v>111363019</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363018</v>
+        <v>111363017</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593479.5069047968</v>
+        <v>593472.3298762256</v>
       </c>
       <c r="R6" t="n">
-        <v>6986870.044355935</v>
+        <v>6986898.025413335</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 47165-2021.xlsx
+++ b/artfynd/A 47165-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363016</v>
+        <v>111363017</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593439.5664869671</v>
+        <v>593472.3298762256</v>
       </c>
       <c r="R2" t="n">
-        <v>6986881.627536911</v>
+        <v>6986898.025413335</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363032</v>
+        <v>111363016</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593471.9433232083</v>
+        <v>593439.5664869671</v>
       </c>
       <c r="R5" t="n">
-        <v>6986863.916970093</v>
+        <v>6986881.627536911</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363017</v>
+        <v>111363032</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593472.3298762256</v>
+        <v>593471.9433232083</v>
       </c>
       <c r="R6" t="n">
-        <v>6986898.025413335</v>
+        <v>6986863.916970093</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">

--- a/artfynd/A 47165-2021.xlsx
+++ b/artfynd/A 47165-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363017</v>
+        <v>111363018</v>
       </c>
       <c r="B2" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593472.3298762256</v>
+        <v>593479.5069047968</v>
       </c>
       <c r="R2" t="n">
-        <v>6986898.025413335</v>
+        <v>6986870.044355935</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111363018</v>
+        <v>111363019</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>593479.5069047968</v>
+        <v>593439.5664869671</v>
       </c>
       <c r="R3" t="n">
-        <v>6986870.044355935</v>
+        <v>6986881.627536911</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363019</v>
+        <v>111363016</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363016</v>
+        <v>111363032</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593439.5664869671</v>
+        <v>593471.9433232083</v>
       </c>
       <c r="R5" t="n">
-        <v>6986881.627536911</v>
+        <v>6986863.916970093</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2023-08-05</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363032</v>
+        <v>111363017</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593471.9433232083</v>
+        <v>593472.3298762256</v>
       </c>
       <c r="R6" t="n">
-        <v>6986863.916970093</v>
+        <v>6986898.025413335</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-05</t>
+          <t>2023-08-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
